--- a/Code/Results/Cases/Case_3_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7797509897647217</v>
+        <v>0.3128181661851386</v>
       </c>
       <c r="C2">
-        <v>0.1570415652682442</v>
+        <v>0.06058390144613668</v>
       </c>
       <c r="D2">
-        <v>0.144687958097748</v>
+        <v>0.1854047359384765</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.243850955158877</v>
+        <v>2.017967820664794</v>
       </c>
       <c r="G2">
-        <v>0.8809255950361319</v>
+        <v>1.280923242651482</v>
       </c>
       <c r="H2">
-        <v>0.6239131260446982</v>
+        <v>1.218535219912155</v>
       </c>
       <c r="I2">
-        <v>0.5918770124548516</v>
+        <v>1.028265946199681</v>
       </c>
       <c r="J2">
-        <v>0.1999362043253257</v>
+        <v>0.3007937144052946</v>
       </c>
       <c r="K2">
-        <v>0.9020480489881493</v>
+        <v>0.3584682315354826</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3871869799256444</v>
+        <v>0.2880942091226117</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6765716906995181</v>
+        <v>0.2837422116946868</v>
       </c>
       <c r="C3">
-        <v>0.1359874637190472</v>
+        <v>0.05482136769936119</v>
       </c>
       <c r="D3">
-        <v>0.1286098748156235</v>
+        <v>0.1820666772606785</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.193326334910097</v>
+        <v>2.016264295554791</v>
       </c>
       <c r="G3">
-        <v>0.8471287521507946</v>
+        <v>1.279475906418924</v>
       </c>
       <c r="H3">
-        <v>0.6158091313933483</v>
+        <v>1.222637093007506</v>
       </c>
       <c r="I3">
-        <v>0.5857152049522441</v>
+        <v>1.032030271367667</v>
       </c>
       <c r="J3">
-        <v>0.1857182837563016</v>
+        <v>0.2988999196909603</v>
       </c>
       <c r="K3">
-        <v>0.7823267026026315</v>
+        <v>0.3249661433025324</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3383582410311945</v>
+        <v>0.2761836987766415</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6134719090297835</v>
+        <v>0.2659796415130984</v>
       </c>
       <c r="C4">
-        <v>0.1231479999554494</v>
+        <v>0.05130270292833927</v>
       </c>
       <c r="D4">
-        <v>0.1188461865429531</v>
+        <v>0.1800945990049598</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.164343023502241</v>
+        <v>2.016183255596644</v>
       </c>
       <c r="G4">
-        <v>0.8280154376713682</v>
+        <v>1.279274012295289</v>
       </c>
       <c r="H4">
-        <v>0.6117781117988699</v>
+        <v>1.225641824270426</v>
       </c>
       <c r="I4">
-        <v>0.5829439386362836</v>
+        <v>1.034805479855429</v>
       </c>
       <c r="J4">
-        <v>0.1772769551314894</v>
+        <v>0.2978817543344618</v>
       </c>
       <c r="K4">
-        <v>0.7091560573765747</v>
+        <v>0.3045019095141868</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3086708014194031</v>
+        <v>0.2690126815871352</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5878084377760047</v>
+        <v>0.2587642414986249</v>
       </c>
       <c r="C5">
-        <v>0.117934118047728</v>
+        <v>0.04987375105439185</v>
       </c>
       <c r="D5">
-        <v>0.1148922984814789</v>
+        <v>0.1793105289186201</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.153017769691203</v>
+        <v>2.01639287905553</v>
       </c>
       <c r="G5">
-        <v>0.8206158040339488</v>
+        <v>1.279364293606179</v>
       </c>
       <c r="H5">
-        <v>0.6103628351116299</v>
+        <v>1.226988570100971</v>
       </c>
       <c r="I5">
-        <v>0.5820576738884</v>
+        <v>1.036053010757829</v>
       </c>
       <c r="J5">
-        <v>0.1739049814945304</v>
+        <v>0.2975032243246432</v>
       </c>
       <c r="K5">
-        <v>0.6794068242783453</v>
+        <v>0.2961895697887371</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2966385159804688</v>
+        <v>0.2661262823297861</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5835496952364565</v>
+        <v>0.2575675277689982</v>
       </c>
       <c r="C6">
-        <v>0.1170693562672085</v>
+        <v>0.04963677307306114</v>
       </c>
       <c r="D6">
-        <v>0.1142371959874851</v>
+        <v>0.1791815188591386</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.151165791559905</v>
+        <v>2.01644234249008</v>
       </c>
       <c r="G6">
-        <v>0.8194099669275516</v>
+        <v>1.279389702536164</v>
       </c>
       <c r="H6">
-        <v>0.6101412763783713</v>
+        <v>1.227219583737138</v>
       </c>
       <c r="I6">
-        <v>0.5819248668790884</v>
+        <v>1.03626720416845</v>
       </c>
       <c r="J6">
-        <v>0.1733490409509599</v>
+        <v>0.2974425673611307</v>
       </c>
       <c r="K6">
-        <v>0.6744706467403176</v>
+        <v>0.2948109518805353</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2946442936629268</v>
+        <v>0.2656491666586049</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.613125616271077</v>
+        <v>0.2658822385944859</v>
       </c>
       <c r="C7">
-        <v>0.1230776144403336</v>
+        <v>0.05128341159002048</v>
       </c>
       <c r="D7">
-        <v>0.1187927652295855</v>
+        <v>0.180083945427171</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.164188355311936</v>
+        <v>2.01618510017353</v>
       </c>
       <c r="G7">
-        <v>0.8279140968743377</v>
+        <v>1.279274531382853</v>
       </c>
       <c r="H7">
-        <v>0.6117581172196367</v>
+        <v>1.225659491740089</v>
       </c>
       <c r="I7">
-        <v>0.5829310167408295</v>
+        <v>1.034821832396318</v>
       </c>
       <c r="J7">
-        <v>0.1772312103576681</v>
+        <v>0.2978765020266394</v>
       </c>
       <c r="K7">
-        <v>0.7087545933125057</v>
+        <v>0.3043896966633355</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3085082747936738</v>
+        <v>0.2689736092875918</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7441139971687107</v>
+        <v>0.3027742379424581</v>
       </c>
       <c r="C8">
-        <v>0.1497615223606346</v>
+        <v>0.05859292865774535</v>
       </c>
       <c r="D8">
-        <v>0.1391202953430337</v>
+        <v>0.1842377333313863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.225990101629961</v>
+        <v>2.017180172852989</v>
       </c>
       <c r="G8">
-        <v>0.8689183791225332</v>
+        <v>1.280281572367556</v>
       </c>
       <c r="H8">
-        <v>0.6209164389851338</v>
+        <v>1.219848666833101</v>
       </c>
       <c r="I8">
-        <v>0.5895352618692939</v>
+        <v>1.029467578288035</v>
       </c>
       <c r="J8">
-        <v>0.1949711151551625</v>
+        <v>0.300110721193434</v>
       </c>
       <c r="K8">
-        <v>0.8606873674317228</v>
+        <v>0.3468948420494371</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3702847674642129</v>
+        <v>0.2839580430582913</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.0036431323812</v>
+        <v>0.3758249848788466</v>
       </c>
       <c r="C9">
-        <v>0.2029710146960184</v>
+        <v>0.07308212949126869</v>
       </c>
       <c r="D9">
-        <v>0.1799566635053509</v>
+        <v>0.1929953883095124</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.364667514172453</v>
+        <v>2.026790075390124</v>
       </c>
       <c r="G9">
-        <v>0.9634207243955046</v>
+        <v>1.287713742595813</v>
       </c>
       <c r="H9">
-        <v>0.6468648841904212</v>
+        <v>1.212309958029465</v>
       </c>
       <c r="I9">
-        <v>0.6110680063460521</v>
+        <v>1.022651176341036</v>
       </c>
       <c r="J9">
-        <v>0.2322720638576641</v>
+        <v>0.3056396971644375</v>
       </c>
       <c r="K9">
-        <v>1.162138754590501</v>
+        <v>0.4310810987830109</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.494160456874674</v>
+        <v>0.3144664128324948</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.196938482424684</v>
+        <v>0.4299179615258311</v>
       </c>
       <c r="C10">
-        <v>0.2428835211202198</v>
+        <v>0.08382330431616936</v>
       </c>
       <c r="D10">
-        <v>0.2107264563194491</v>
+        <v>0.1997998284582252</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.479166978504011</v>
+        <v>2.038526293476565</v>
       </c>
       <c r="G10">
-        <v>1.043081840712617</v>
+        <v>1.296514878304492</v>
       </c>
       <c r="H10">
-        <v>0.6715353933867192</v>
+        <v>1.209121621695772</v>
       </c>
       <c r="I10">
-        <v>0.6329424536753763</v>
+        <v>1.019892934790043</v>
       </c>
       <c r="J10">
-        <v>0.261544837323413</v>
+        <v>0.3104024993508006</v>
       </c>
       <c r="K10">
-        <v>1.387007016151642</v>
+        <v>0.493435959060804</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5874460151177985</v>
+        <v>0.3375642107448442</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.285684442690382</v>
+        <v>0.4546167971069792</v>
       </c>
       <c r="C11">
-        <v>0.2612874838622758</v>
+        <v>0.08873093677581778</v>
       </c>
       <c r="D11">
-        <v>0.2249329690152706</v>
+        <v>0.2029751637502812</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.534467243798147</v>
+        <v>2.044882475226544</v>
       </c>
       <c r="G11">
-        <v>1.081939755859977</v>
+        <v>1.301247276331011</v>
       </c>
       <c r="H11">
-        <v>0.6841542664283935</v>
+        <v>1.208181498654284</v>
       </c>
       <c r="I11">
-        <v>0.6444072491178119</v>
+        <v>1.019127664649602</v>
       </c>
       <c r="J11">
-        <v>0.2753486170665695</v>
+        <v>0.312721640864865</v>
       </c>
       <c r="K11">
-        <v>1.490346177835704</v>
+        <v>0.5219114371939781</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6305253415674059</v>
+        <v>0.3482201529563582</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.319429086743042</v>
+        <v>0.4639825570927201</v>
       </c>
       <c r="C12">
-        <v>0.2682984178570678</v>
+        <v>0.09059241339443247</v>
       </c>
       <c r="D12">
-        <v>0.2303464259010468</v>
+        <v>0.2041890135200788</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.555913032639424</v>
+        <v>2.04743575857826</v>
       </c>
       <c r="G12">
-        <v>1.097066984476541</v>
+        <v>1.303144306255817</v>
       </c>
       <c r="H12">
-        <v>0.6891497015478336</v>
+        <v>1.207898858329457</v>
       </c>
       <c r="I12">
-        <v>0.6489844805402782</v>
+        <v>1.018908330082297</v>
       </c>
       <c r="J12">
-        <v>0.2806531939005907</v>
+        <v>0.3136217766800939</v>
       </c>
       <c r="K12">
-        <v>1.529655676879145</v>
+        <v>0.5327099695520303</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6469441108660092</v>
+        <v>0.3522765776480483</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.312155056880954</v>
+        <v>0.461964907041164</v>
       </c>
       <c r="C13">
-        <v>0.2667865269121421</v>
+        <v>0.0901913751523864</v>
       </c>
       <c r="D13">
-        <v>0.2291789778815314</v>
+        <v>0.2039270826372643</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.551271131177856</v>
+        <v>2.046879354282737</v>
       </c>
       <c r="G13">
-        <v>1.093790111932179</v>
+        <v>1.30273107525359</v>
       </c>
       <c r="H13">
-        <v>0.688063924340554</v>
+        <v>1.207956467285015</v>
       </c>
       <c r="I13">
-        <v>0.6479879026676514</v>
+        <v>1.018952432983845</v>
       </c>
       <c r="J13">
-        <v>0.2795071939990379</v>
+        <v>0.3134269411808219</v>
       </c>
       <c r="K13">
-        <v>1.521181339370486</v>
+        <v>0.5303836287269519</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6434031203787924</v>
+        <v>0.3514020108401041</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.28845773127037</v>
+        <v>0.4553870682557033</v>
       </c>
       <c r="C14">
-        <v>0.2618634036220442</v>
+        <v>0.08888402029367626</v>
       </c>
       <c r="D14">
-        <v>0.2253776386562976</v>
+        <v>0.2030747994955249</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.536221228386637</v>
+        <v>2.045089602341946</v>
       </c>
       <c r="G14">
-        <v>1.083175797113924</v>
+        <v>1.301401241241848</v>
       </c>
       <c r="H14">
-        <v>0.6845607984875244</v>
+        <v>1.208156775409378</v>
       </c>
       <c r="I14">
-        <v>0.6447789869093441</v>
+        <v>1.01910820739576</v>
       </c>
       <c r="J14">
-        <v>0.2757834329452749</v>
+        <v>0.3127952561522278</v>
       </c>
       <c r="K14">
-        <v>1.493576480517731</v>
+        <v>0.5227995304101682</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.631873929213711</v>
+        <v>0.3485534522663798</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.273961131024691</v>
+        <v>0.4513596152226285</v>
       </c>
       <c r="C15">
-        <v>0.2588534778967357</v>
+        <v>0.08808362604537479</v>
       </c>
       <c r="D15">
-        <v>0.223053719286014</v>
+        <v>0.202554236238754</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.527069791114727</v>
+        <v>2.044012386149745</v>
       </c>
       <c r="G15">
-        <v>1.076729068873533</v>
+        <v>1.300600355640555</v>
       </c>
       <c r="H15">
-        <v>0.6824437884773005</v>
+        <v>1.208289023717413</v>
       </c>
       <c r="I15">
-        <v>0.6428446979274227</v>
+        <v>1.019212801384683</v>
       </c>
       <c r="J15">
-        <v>0.273512826363671</v>
+        <v>0.3124111862693297</v>
       </c>
       <c r="K15">
-        <v>1.476691620696698</v>
+        <v>0.5181560585142222</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6248261205622399</v>
+        <v>0.3468113917024525</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.191156903302812</v>
+        <v>0.4283056504710885</v>
       </c>
       <c r="C16">
-        <v>0.2416862741646071</v>
+        <v>0.08350300850220549</v>
       </c>
       <c r="D16">
-        <v>0.2098025443461324</v>
+        <v>0.1995939150814934</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.47562121188416</v>
+        <v>2.038131377025522</v>
       </c>
       <c r="G16">
-        <v>1.040598098239428</v>
+        <v>1.296220284425701</v>
       </c>
       <c r="H16">
-        <v>0.6707401665932196</v>
+        <v>1.209193327791979</v>
       </c>
       <c r="I16">
-        <v>0.6322251772437752</v>
+        <v>1.019952802467692</v>
       </c>
       <c r="J16">
-        <v>0.2606531461138388</v>
+        <v>0.3102540066575727</v>
       </c>
       <c r="K16">
-        <v>1.380276841290453</v>
+        <v>0.4915772042483013</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5846447159825559</v>
+        <v>0.3368708002793355</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.140582511291427</v>
+        <v>0.4141860294763262</v>
       </c>
       <c r="C17">
-        <v>0.2312223671460885</v>
+        <v>0.08069842135303418</v>
       </c>
       <c r="D17">
-        <v>0.2017294797466889</v>
+        <v>0.1977982775140816</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.444911567417719</v>
+        <v>2.034784160630522</v>
       </c>
       <c r="G17">
-        <v>1.019128480815056</v>
+        <v>1.293720026200177</v>
       </c>
       <c r="H17">
-        <v>0.6639290500172308</v>
+        <v>1.209878772026627</v>
       </c>
       <c r="I17">
-        <v>0.6261105994871556</v>
+        <v>1.020532184629708</v>
       </c>
       <c r="J17">
-        <v>0.2528939962863177</v>
+        <v>0.308969707143433</v>
       </c>
       <c r="K17">
-        <v>1.321415674522711</v>
+        <v>0.4752998660499088</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.560168438278744</v>
+        <v>0.3308105512066959</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.111568788055649</v>
+        <v>0.4060734451499286</v>
       </c>
       <c r="C18">
-        <v>0.2252267070398659</v>
+        <v>0.07908731398465818</v>
       </c>
       <c r="D18">
-        <v>0.1971055183318526</v>
+        <v>0.1967730053243741</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.42754794641138</v>
+        <v>2.032954682208668</v>
       </c>
       <c r="G18">
-        <v>1.007023983861643</v>
+        <v>1.29235052307277</v>
       </c>
       <c r="H18">
-        <v>0.6601418412546423</v>
+        <v>1.210321050838772</v>
       </c>
       <c r="I18">
-        <v>0.6227349957203572</v>
+        <v>1.020911496641794</v>
       </c>
       <c r="J18">
-        <v>0.2484765486529597</v>
+        <v>0.3082453681115993</v>
       </c>
       <c r="K18">
-        <v>1.287656953754919</v>
+        <v>0.4659479387811132</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5461500332483524</v>
+        <v>0.3273388540767854</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.101757557762198</v>
+        <v>0.4033281590718047</v>
       </c>
       <c r="C19">
-        <v>0.2232004343258041</v>
+        <v>0.07854216766048694</v>
       </c>
       <c r="D19">
-        <v>0.1955431579651759</v>
+        <v>0.1964271616585336</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.421719163479096</v>
+        <v>2.032351696334914</v>
       </c>
       <c r="G19">
-        <v>1.002966515745769</v>
+        <v>1.29189860576929</v>
       </c>
       <c r="H19">
-        <v>0.6588814765724891</v>
+        <v>1.210479048323478</v>
       </c>
       <c r="I19">
-        <v>0.6216158234062021</v>
+        <v>1.021047834994235</v>
       </c>
       <c r="J19">
-        <v>0.2469884635794415</v>
+        <v>0.3080025851793664</v>
       </c>
       <c r="K19">
-        <v>1.276242651356853</v>
+        <v>0.4627833273233364</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5414135155350195</v>
+        <v>0.3261658049942966</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.145958296774864</v>
+        <v>0.4156881946108228</v>
       </c>
       <c r="C20">
-        <v>0.2323338547446241</v>
+        <v>0.08099676581828419</v>
       </c>
       <c r="D20">
-        <v>0.2025868323500504</v>
+        <v>0.1979886473383203</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.448149340433005</v>
+        <v>2.035130567226616</v>
       </c>
       <c r="G20">
-        <v>1.021388427924322</v>
+        <v>1.293979083915488</v>
       </c>
       <c r="H20">
-        <v>0.6646404997711244</v>
+        <v>1.209800834537674</v>
       </c>
       <c r="I20">
-        <v>0.6267467525677333</v>
+        <v>1.020465740154521</v>
       </c>
       <c r="J20">
-        <v>0.2537152203560566</v>
+        <v>0.3091049372542329</v>
       </c>
       <c r="K20">
-        <v>1.327671354286252</v>
+        <v>0.4770315458719381</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5627677096425998</v>
+        <v>0.3314542272378702</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.29541427346129</v>
+        <v>0.4573187929510425</v>
       </c>
       <c r="C21">
-        <v>0.2633082593313247</v>
+        <v>0.08926793912095832</v>
       </c>
       <c r="D21">
-        <v>0.2264932371222841</v>
+        <v>0.203324826428485</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.540627692694969</v>
+        <v>2.045611324003502</v>
       </c>
       <c r="G21">
-        <v>1.086281980481033</v>
+        <v>1.301788995304477</v>
       </c>
       <c r="H21">
-        <v>0.6855837279771464</v>
+        <v>1.208095949075158</v>
       </c>
       <c r="I21">
-        <v>0.6457149733851679</v>
+        <v>1.019060539929747</v>
       </c>
       <c r="J21">
-        <v>0.2768750304836516</v>
+        <v>0.3129802022955772</v>
       </c>
       <c r="K21">
-        <v>1.501679661978926</v>
+        <v>0.5250267461775593</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.635257357605866</v>
+        <v>0.3493895672126754</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.393910735865234</v>
+        <v>0.4846015237491201</v>
       </c>
       <c r="C22">
-        <v>0.2837984530019071</v>
+        <v>0.09469147315991222</v>
       </c>
       <c r="D22">
-        <v>0.2423161540143184</v>
+        <v>0.2068788513962119</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.604032287272119</v>
+        <v>2.053314080068077</v>
       </c>
       <c r="G22">
-        <v>1.131117373753213</v>
+        <v>1.307505175344076</v>
       </c>
       <c r="H22">
-        <v>0.7005443609385367</v>
+        <v>1.207409323566282</v>
       </c>
       <c r="I22">
-        <v>0.6594954942295956</v>
+        <v>1.018552868878707</v>
       </c>
       <c r="J22">
-        <v>0.2924661986999126</v>
+        <v>0.3156407187375834</v>
       </c>
       <c r="K22">
-        <v>1.616451177633763</v>
+        <v>0.5564845050051588</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6832557080099022</v>
+        <v>0.3612351569769032</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.341258930289996</v>
+        <v>0.4700334893163927</v>
       </c>
       <c r="C23">
-        <v>0.2728377045125967</v>
+        <v>0.09179520380857298</v>
       </c>
       <c r="D23">
-        <v>0.2338516896459168</v>
+        <v>0.2049759405205123</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.569905765656941</v>
+        <v>2.049124911501053</v>
       </c>
       <c r="G23">
-        <v>1.106953455562277</v>
+        <v>1.304398287881526</v>
       </c>
       <c r="H23">
-        <v>0.6924373976566187</v>
+        <v>1.207736665435831</v>
       </c>
       <c r="I23">
-        <v>0.6520075979850901</v>
+        <v>1.018786218879789</v>
       </c>
       <c r="J23">
-        <v>0.2841007046346107</v>
+        <v>0.3142090582574184</v>
       </c>
       <c r="K23">
-        <v>1.555090168837438</v>
+        <v>0.5396867669148548</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6575765481289864</v>
+        <v>0.3549016548776365</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.1435277121046</v>
+        <v>0.415009050236705</v>
       </c>
       <c r="C24">
-        <v>0.2318312888053811</v>
+        <v>0.08086188027567687</v>
       </c>
       <c r="D24">
-        <v>0.2021991694681731</v>
+        <v>0.1979025591328991</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.446684637657157</v>
+        <v>2.034973661253176</v>
       </c>
       <c r="G24">
-        <v>1.020365965101945</v>
+        <v>1.293861752338088</v>
       </c>
       <c r="H24">
-        <v>0.6643184540060219</v>
+        <v>1.209835919904805</v>
       </c>
       <c r="I24">
-        <v>0.626458713821556</v>
+        <v>1.020495635737582</v>
       </c>
       <c r="J24">
-        <v>0.2533438103447736</v>
+        <v>0.3090437560449999</v>
       </c>
       <c r="K24">
-        <v>1.324842910087</v>
+        <v>0.476248634304369</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5615924139127415</v>
+        <v>0.3311631826068009</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.933050342281291</v>
+        <v>0.3559880713555685</v>
       </c>
       <c r="C25">
-        <v>0.1884542563784777</v>
+        <v>0.06914566144595824</v>
       </c>
       <c r="D25">
-        <v>0.1687879065529359</v>
+        <v>0.1905609893543811</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.325086753649657</v>
+        <v>2.023369722581435</v>
       </c>
       <c r="G25">
-        <v>0.9361847696473973</v>
+        <v>1.285117471760842</v>
       </c>
       <c r="H25">
-        <v>0.6389172398612715</v>
+        <v>1.213936594616726</v>
       </c>
       <c r="I25">
-        <v>0.6042428388946277</v>
+        <v>1.024100425292517</v>
       </c>
       <c r="J25">
-        <v>0.2218789717023526</v>
+        <v>0.3040209922058636</v>
       </c>
       <c r="K25">
-        <v>1.080088823991701</v>
+        <v>0.4082177576576669</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4602962234547121</v>
+        <v>0.3060929628873623</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_157/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_157/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3128181661851386</v>
+        <v>0.7797509897647501</v>
       </c>
       <c r="C2">
-        <v>0.06058390144613668</v>
+        <v>0.1570415652681163</v>
       </c>
       <c r="D2">
-        <v>0.1854047359384765</v>
+        <v>0.1446879580978475</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.017967820664794</v>
+        <v>1.243850955158862</v>
       </c>
       <c r="G2">
-        <v>1.280923242651482</v>
+        <v>0.8809255950361035</v>
       </c>
       <c r="H2">
-        <v>1.218535219912155</v>
+        <v>0.6239131260445845</v>
       </c>
       <c r="I2">
-        <v>1.028265946199681</v>
+        <v>0.5918770124548445</v>
       </c>
       <c r="J2">
-        <v>0.3007937144052946</v>
+        <v>0.1999362043253754</v>
       </c>
       <c r="K2">
-        <v>0.3584682315354826</v>
+        <v>0.9020480489881209</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2880942091226117</v>
+        <v>0.3871869799256586</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2837422116946868</v>
+        <v>0.6765716906994044</v>
       </c>
       <c r="C3">
-        <v>0.05482136769936119</v>
+        <v>0.1359874637190188</v>
       </c>
       <c r="D3">
-        <v>0.1820666772606785</v>
+        <v>0.128609874815794</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.016264295554791</v>
+        <v>1.193326334910083</v>
       </c>
       <c r="G3">
-        <v>1.279475906418924</v>
+        <v>0.8471287521508089</v>
       </c>
       <c r="H3">
-        <v>1.222637093007506</v>
+        <v>0.6158091313934477</v>
       </c>
       <c r="I3">
-        <v>1.032030271367667</v>
+        <v>0.5857152049522441</v>
       </c>
       <c r="J3">
-        <v>0.2988999196909603</v>
+        <v>0.1857182837563087</v>
       </c>
       <c r="K3">
-        <v>0.3249661433025324</v>
+        <v>0.7823267026026599</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2761836987766415</v>
+        <v>0.3383582410311803</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2659796415130984</v>
+        <v>0.6134719090300393</v>
       </c>
       <c r="C4">
-        <v>0.05130270292833927</v>
+        <v>0.123147999955421</v>
       </c>
       <c r="D4">
-        <v>0.1800945990049598</v>
+        <v>0.1188461865429389</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.016183255596644</v>
+        <v>1.164343023502241</v>
       </c>
       <c r="G4">
-        <v>1.279274012295289</v>
+        <v>0.8280154376713824</v>
       </c>
       <c r="H4">
-        <v>1.225641824270426</v>
+        <v>0.6117781117987278</v>
       </c>
       <c r="I4">
-        <v>1.034805479855429</v>
+        <v>0.5829439386362623</v>
       </c>
       <c r="J4">
-        <v>0.2978817543344618</v>
+        <v>0.1772769551315108</v>
       </c>
       <c r="K4">
-        <v>0.3045019095141868</v>
+        <v>0.7091560573766174</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2690126815871352</v>
+        <v>0.308670801419396</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2587642414986249</v>
+        <v>0.5878084377760331</v>
       </c>
       <c r="C5">
-        <v>0.04987375105439185</v>
+        <v>0.1179341180479696</v>
       </c>
       <c r="D5">
-        <v>0.1793105289186201</v>
+        <v>0.1148922984812941</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.01639287905553</v>
+        <v>1.153017769691175</v>
       </c>
       <c r="G5">
-        <v>1.279364293606179</v>
+        <v>0.8206158040339773</v>
       </c>
       <c r="H5">
-        <v>1.226988570100971</v>
+        <v>0.6103628351116157</v>
       </c>
       <c r="I5">
-        <v>1.036053010757829</v>
+        <v>0.5820576738884071</v>
       </c>
       <c r="J5">
-        <v>0.2975032243246432</v>
+        <v>0.1739049814945943</v>
       </c>
       <c r="K5">
-        <v>0.2961895697887371</v>
+        <v>0.679406824278459</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2661262823297861</v>
+        <v>0.2966385159804688</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2575675277689982</v>
+        <v>0.5835496952364565</v>
       </c>
       <c r="C6">
-        <v>0.04963677307306114</v>
+        <v>0.1170693562668959</v>
       </c>
       <c r="D6">
-        <v>0.1791815188591386</v>
+        <v>0.1142371959876272</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.01644234249008</v>
+        <v>1.151165791559933</v>
       </c>
       <c r="G6">
-        <v>1.279389702536164</v>
+        <v>0.8194099669275232</v>
       </c>
       <c r="H6">
-        <v>1.227219583737138</v>
+        <v>0.6101412763782577</v>
       </c>
       <c r="I6">
-        <v>1.03626720416845</v>
+        <v>0.5819248668790813</v>
       </c>
       <c r="J6">
-        <v>0.2974425673611307</v>
+        <v>0.1733490409510452</v>
       </c>
       <c r="K6">
-        <v>0.2948109518805353</v>
+        <v>0.6744706467404313</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2656491666586049</v>
+        <v>0.2946442936629268</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2658822385944859</v>
+        <v>0.6131256162709633</v>
       </c>
       <c r="C7">
-        <v>0.05128341159002048</v>
+        <v>0.1230776144408168</v>
       </c>
       <c r="D7">
-        <v>0.180083945427171</v>
+        <v>0.1187927652295286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.01618510017353</v>
+        <v>1.164188355311936</v>
       </c>
       <c r="G7">
-        <v>1.279274531382853</v>
+        <v>0.8279140968743377</v>
       </c>
       <c r="H7">
-        <v>1.225659491740089</v>
+        <v>0.6117581172196367</v>
       </c>
       <c r="I7">
-        <v>1.034821832396318</v>
+        <v>0.5829310167408437</v>
       </c>
       <c r="J7">
-        <v>0.2978765020266394</v>
+        <v>0.1772312103577534</v>
       </c>
       <c r="K7">
-        <v>0.3043896966633355</v>
+        <v>0.7087545933125909</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2689736092875918</v>
+        <v>0.3085082747936809</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3027742379424581</v>
+        <v>0.7441139971687107</v>
       </c>
       <c r="C8">
-        <v>0.05859292865774535</v>
+        <v>0.1497615223604072</v>
       </c>
       <c r="D8">
-        <v>0.1842377333313863</v>
+        <v>0.1391202953431332</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.017180172852989</v>
+        <v>1.225990101629989</v>
       </c>
       <c r="G8">
-        <v>1.280281572367556</v>
+        <v>0.8689183791225474</v>
       </c>
       <c r="H8">
-        <v>1.219848666833101</v>
+        <v>0.6209164389851196</v>
       </c>
       <c r="I8">
-        <v>1.029467578288035</v>
+        <v>0.5895352618693153</v>
       </c>
       <c r="J8">
-        <v>0.300110721193434</v>
+        <v>0.1949711151552549</v>
       </c>
       <c r="K8">
-        <v>0.3468948420494371</v>
+        <v>0.8606873674317512</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2839580430582913</v>
+        <v>0.3702847674642058</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3758249848788466</v>
+        <v>1.003643132381086</v>
       </c>
       <c r="C9">
-        <v>0.07308212949126869</v>
+        <v>0.2029710146956631</v>
       </c>
       <c r="D9">
-        <v>0.1929953883095124</v>
+        <v>0.1799566635054646</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.026790075390124</v>
+        <v>1.364667514172453</v>
       </c>
       <c r="G9">
-        <v>1.287713742595813</v>
+        <v>0.963420724395462</v>
       </c>
       <c r="H9">
-        <v>1.212309958029465</v>
+        <v>0.6468648841904212</v>
       </c>
       <c r="I9">
-        <v>1.022651176341036</v>
+        <v>0.6110680063460379</v>
       </c>
       <c r="J9">
-        <v>0.3056396971644375</v>
+        <v>0.2322720638576214</v>
       </c>
       <c r="K9">
-        <v>0.4310810987830109</v>
+        <v>1.162138754590586</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3144664128324948</v>
+        <v>0.4941604568746527</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4299179615258311</v>
+        <v>1.196938482424741</v>
       </c>
       <c r="C10">
-        <v>0.08382330431616936</v>
+        <v>0.2428835211200777</v>
       </c>
       <c r="D10">
-        <v>0.1997998284582252</v>
+        <v>0.2107264563193212</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.038526293476565</v>
+        <v>1.479166978503955</v>
       </c>
       <c r="G10">
-        <v>1.296514878304492</v>
+        <v>1.043081840712645</v>
       </c>
       <c r="H10">
-        <v>1.209121621695772</v>
+        <v>0.6715353933866055</v>
       </c>
       <c r="I10">
-        <v>1.019892934790043</v>
+        <v>0.6329424536753905</v>
       </c>
       <c r="J10">
-        <v>0.3104024993508006</v>
+        <v>0.2615448373233562</v>
       </c>
       <c r="K10">
-        <v>0.493435959060804</v>
+        <v>1.387007016151728</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3375642107448442</v>
+        <v>0.5874460151178127</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4546167971069792</v>
+        <v>1.285684442690382</v>
       </c>
       <c r="C11">
-        <v>0.08873093677581778</v>
+        <v>0.2612874838623895</v>
       </c>
       <c r="D11">
-        <v>0.2029751637502812</v>
+        <v>0.2249329690154127</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.044882475226544</v>
+        <v>1.534467243798161</v>
       </c>
       <c r="G11">
-        <v>1.301247276331011</v>
+        <v>1.081939755860006</v>
       </c>
       <c r="H11">
-        <v>1.208181498654284</v>
+        <v>0.6841542664283935</v>
       </c>
       <c r="I11">
-        <v>1.019127664649602</v>
+        <v>0.6444072491178261</v>
       </c>
       <c r="J11">
-        <v>0.312721640864865</v>
+        <v>0.275348617066598</v>
       </c>
       <c r="K11">
-        <v>0.5219114371939781</v>
+        <v>1.490346177835676</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3482201529563582</v>
+        <v>0.630525341567413</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4639825570927201</v>
+        <v>1.319429086742872</v>
       </c>
       <c r="C12">
-        <v>0.09059241339443247</v>
+        <v>0.2682984178572951</v>
       </c>
       <c r="D12">
-        <v>0.2041890135200788</v>
+        <v>0.2303464259012458</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.04743575857826</v>
+        <v>1.555913032639424</v>
       </c>
       <c r="G12">
-        <v>1.303144306255817</v>
+        <v>1.097066984476584</v>
       </c>
       <c r="H12">
-        <v>1.207898858329457</v>
+        <v>0.6891497015478194</v>
       </c>
       <c r="I12">
-        <v>1.018908330082297</v>
+        <v>0.6489844805402711</v>
       </c>
       <c r="J12">
-        <v>0.3136217766800939</v>
+        <v>0.2806531939005481</v>
       </c>
       <c r="K12">
-        <v>0.5327099695520303</v>
+        <v>1.529655676879059</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3522765776480483</v>
+        <v>0.6469441108660092</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.461964907041164</v>
+        <v>1.312155056881068</v>
       </c>
       <c r="C13">
-        <v>0.0901913751523864</v>
+        <v>0.2667865269123695</v>
       </c>
       <c r="D13">
-        <v>0.2039270826372643</v>
+        <v>0.2291789778817162</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.046879354282737</v>
+        <v>1.551271131177842</v>
       </c>
       <c r="G13">
-        <v>1.30273107525359</v>
+        <v>1.093790111932194</v>
       </c>
       <c r="H13">
-        <v>1.207956467285015</v>
+        <v>0.6880639243406677</v>
       </c>
       <c r="I13">
-        <v>1.018952432983845</v>
+        <v>0.6479879026676372</v>
       </c>
       <c r="J13">
-        <v>0.3134269411808219</v>
+        <v>0.2795071939990521</v>
       </c>
       <c r="K13">
-        <v>0.5303836287269519</v>
+        <v>1.521181339370571</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3514020108401041</v>
+        <v>0.6434031203788066</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4553870682557033</v>
+        <v>1.288457731270427</v>
       </c>
       <c r="C14">
-        <v>0.08888402029367626</v>
+        <v>0.2618634036219305</v>
       </c>
       <c r="D14">
-        <v>0.2030747994955249</v>
+        <v>0.2253776386562834</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.045089602341946</v>
+        <v>1.536221228386665</v>
       </c>
       <c r="G14">
-        <v>1.301401241241848</v>
+        <v>1.083175797113839</v>
       </c>
       <c r="H14">
-        <v>1.208156775409378</v>
+        <v>0.6845607984875102</v>
       </c>
       <c r="I14">
-        <v>1.01910820739576</v>
+        <v>0.6447789869093512</v>
       </c>
       <c r="J14">
-        <v>0.3127952561522278</v>
+        <v>0.2757834329452891</v>
       </c>
       <c r="K14">
-        <v>0.5227995304101682</v>
+        <v>1.49357648051776</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3485534522663798</v>
+        <v>0.6318739292137039</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4513596152226285</v>
+        <v>1.273961131024635</v>
       </c>
       <c r="C15">
-        <v>0.08808362604537479</v>
+        <v>0.2588534778968352</v>
       </c>
       <c r="D15">
-        <v>0.202554236238754</v>
+        <v>0.223053719285943</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.044012386149745</v>
+        <v>1.527069791114727</v>
       </c>
       <c r="G15">
-        <v>1.300600355640555</v>
+        <v>1.076729068873561</v>
       </c>
       <c r="H15">
-        <v>1.208289023717413</v>
+        <v>0.6824437884772863</v>
       </c>
       <c r="I15">
-        <v>1.019212801384683</v>
+        <v>0.6428446979274369</v>
       </c>
       <c r="J15">
-        <v>0.3124111862693297</v>
+        <v>0.2735128263636994</v>
       </c>
       <c r="K15">
-        <v>0.5181560585142222</v>
+        <v>1.476691620696641</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3468113917024525</v>
+        <v>0.6248261205622399</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4283056504710885</v>
+        <v>1.191156903302698</v>
       </c>
       <c r="C16">
-        <v>0.08350300850220549</v>
+        <v>0.2416862741644934</v>
       </c>
       <c r="D16">
-        <v>0.1995939150814934</v>
+        <v>0.2098025443461182</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.038131377025522</v>
+        <v>1.47562121188416</v>
       </c>
       <c r="G16">
-        <v>1.296220284425701</v>
+        <v>1.040598098239386</v>
       </c>
       <c r="H16">
-        <v>1.209193327791979</v>
+        <v>0.6707401665933475</v>
       </c>
       <c r="I16">
-        <v>1.019952802467692</v>
+        <v>0.632225177243761</v>
       </c>
       <c r="J16">
-        <v>0.3102540066575727</v>
+        <v>0.2606531461139383</v>
       </c>
       <c r="K16">
-        <v>0.4915772042483013</v>
+        <v>1.38027684129051</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3368708002793355</v>
+        <v>0.5846447159825487</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4141860294763262</v>
+        <v>1.140582511291427</v>
       </c>
       <c r="C17">
-        <v>0.08069842135303418</v>
+        <v>0.2312223671460458</v>
       </c>
       <c r="D17">
-        <v>0.1977982775140816</v>
+        <v>0.2017294797467883</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.034784160630522</v>
+        <v>1.444911567417748</v>
       </c>
       <c r="G17">
-        <v>1.293720026200177</v>
+        <v>1.019128480815056</v>
       </c>
       <c r="H17">
-        <v>1.209878772026627</v>
+        <v>0.6639290500172308</v>
       </c>
       <c r="I17">
-        <v>1.020532184629708</v>
+        <v>0.6261105994871556</v>
       </c>
       <c r="J17">
-        <v>0.308969707143433</v>
+        <v>0.2528939962863035</v>
       </c>
       <c r="K17">
-        <v>0.4752998660499088</v>
+        <v>1.321415674522541</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3308105512066959</v>
+        <v>0.5601684382787653</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4060734451499286</v>
+        <v>1.111568788055564</v>
       </c>
       <c r="C18">
-        <v>0.07908731398465818</v>
+        <v>0.225226707039738</v>
       </c>
       <c r="D18">
-        <v>0.1967730053243741</v>
+        <v>0.1971055183318953</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.032954682208668</v>
+        <v>1.427547946411394</v>
       </c>
       <c r="G18">
-        <v>1.29235052307277</v>
+        <v>1.007023983861643</v>
       </c>
       <c r="H18">
-        <v>1.210321050838772</v>
+        <v>0.6601418412546707</v>
       </c>
       <c r="I18">
-        <v>1.020911496641794</v>
+        <v>0.6227349957203785</v>
       </c>
       <c r="J18">
-        <v>0.3082453681115993</v>
+        <v>0.2484765486530165</v>
       </c>
       <c r="K18">
-        <v>0.4659479387811132</v>
+        <v>1.287656953754862</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3273388540767854</v>
+        <v>0.5461500332483382</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4033281590718047</v>
+        <v>1.101757557762227</v>
       </c>
       <c r="C19">
-        <v>0.07854216766048694</v>
+        <v>0.2232004343256762</v>
       </c>
       <c r="D19">
-        <v>0.1964271616585336</v>
+        <v>0.1955431579651759</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.032351696334914</v>
+        <v>1.421719163479082</v>
       </c>
       <c r="G19">
-        <v>1.29189860576929</v>
+        <v>1.002966515745754</v>
       </c>
       <c r="H19">
-        <v>1.210479048323478</v>
+        <v>0.658881476572617</v>
       </c>
       <c r="I19">
-        <v>1.021047834994235</v>
+        <v>0.6216158234062021</v>
       </c>
       <c r="J19">
-        <v>0.3080025851793664</v>
+        <v>0.2469884635793846</v>
       </c>
       <c r="K19">
-        <v>0.4627833273233364</v>
+        <v>1.276242651356881</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3261658049942966</v>
+        <v>0.5414135155350195</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4156881946108228</v>
+        <v>1.145958296774864</v>
       </c>
       <c r="C20">
-        <v>0.08099676581828419</v>
+        <v>0.2323338547446383</v>
       </c>
       <c r="D20">
-        <v>0.1979886473383203</v>
+        <v>0.2025868323501214</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.035130567226616</v>
+        <v>1.448149340433005</v>
       </c>
       <c r="G20">
-        <v>1.293979083915488</v>
+        <v>1.021388427924265</v>
       </c>
       <c r="H20">
-        <v>1.209800834537674</v>
+        <v>0.6646404997710107</v>
       </c>
       <c r="I20">
-        <v>1.020465740154521</v>
+        <v>0.6267467525677475</v>
       </c>
       <c r="J20">
-        <v>0.3091049372542329</v>
+        <v>0.2537152203559998</v>
       </c>
       <c r="K20">
-        <v>0.4770315458719381</v>
+        <v>1.327671354286252</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3314542272378702</v>
+        <v>0.5627677096425856</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4573187929510425</v>
+        <v>1.295414273461148</v>
       </c>
       <c r="C21">
-        <v>0.08926793912095832</v>
+        <v>0.2633082593313247</v>
       </c>
       <c r="D21">
-        <v>0.203324826428485</v>
+        <v>0.2264932371224546</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.045611324003502</v>
+        <v>1.540627692694983</v>
       </c>
       <c r="G21">
-        <v>1.301788995304477</v>
+        <v>1.086281980480976</v>
       </c>
       <c r="H21">
-        <v>1.208095949075158</v>
+        <v>0.6855837279772885</v>
       </c>
       <c r="I21">
-        <v>1.019060539929747</v>
+        <v>0.6457149733851466</v>
       </c>
       <c r="J21">
-        <v>0.3129802022955772</v>
+        <v>0.2768750304836232</v>
       </c>
       <c r="K21">
-        <v>0.5250267461775593</v>
+        <v>1.501679661978926</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3493895672126754</v>
+        <v>0.6352573576058447</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4846015237491201</v>
+        <v>1.393910735865376</v>
       </c>
       <c r="C22">
-        <v>0.09469147315991222</v>
+        <v>0.2837984530019639</v>
       </c>
       <c r="D22">
-        <v>0.2068788513962119</v>
+        <v>0.2423161540143326</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.053314080068077</v>
+        <v>1.604032287272119</v>
       </c>
       <c r="G22">
-        <v>1.307505175344076</v>
+        <v>1.131117373753284</v>
       </c>
       <c r="H22">
-        <v>1.207409323566282</v>
+        <v>0.7005443609385367</v>
       </c>
       <c r="I22">
-        <v>1.018552868878707</v>
+        <v>0.6594954942296312</v>
       </c>
       <c r="J22">
-        <v>0.3156407187375834</v>
+        <v>0.2924661986998416</v>
       </c>
       <c r="K22">
-        <v>0.5564845050051588</v>
+        <v>1.616451177633763</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3612351569769032</v>
+        <v>0.6832557080099164</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4700334893163927</v>
+        <v>1.341258930290138</v>
       </c>
       <c r="C23">
-        <v>0.09179520380857298</v>
+        <v>0.2728377045126251</v>
       </c>
       <c r="D23">
-        <v>0.2049759405205123</v>
+        <v>0.2338516896460021</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.049124911501053</v>
+        <v>1.569905765656912</v>
       </c>
       <c r="G23">
-        <v>1.304398287881526</v>
+        <v>1.106953455562291</v>
       </c>
       <c r="H23">
-        <v>1.207736665435831</v>
+        <v>0.6924373976566187</v>
       </c>
       <c r="I23">
-        <v>1.018786218879789</v>
+        <v>0.652007597985083</v>
       </c>
       <c r="J23">
-        <v>0.3142090582574184</v>
+        <v>0.2841007046345112</v>
       </c>
       <c r="K23">
-        <v>0.5396867669148548</v>
+        <v>1.555090168837609</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3549016548776365</v>
+        <v>0.6575765481289721</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.415009050236705</v>
+        <v>1.143527712104571</v>
       </c>
       <c r="C24">
-        <v>0.08086188027567687</v>
+        <v>0.2318312888053953</v>
       </c>
       <c r="D24">
-        <v>0.1979025591328991</v>
+        <v>0.2021991694681731</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.034973661253176</v>
+        <v>1.446684637657171</v>
       </c>
       <c r="G24">
-        <v>1.293861752338088</v>
+        <v>1.020365965101931</v>
       </c>
       <c r="H24">
-        <v>1.209835919904805</v>
+        <v>0.6643184540060219</v>
       </c>
       <c r="I24">
-        <v>1.020495635737582</v>
+        <v>0.626458713821556</v>
       </c>
       <c r="J24">
-        <v>0.3090437560449999</v>
+        <v>0.2533438103448304</v>
       </c>
       <c r="K24">
-        <v>0.476248634304369</v>
+        <v>1.324842910087</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3311631826068009</v>
+        <v>0.5615924139127415</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3559880713555685</v>
+        <v>0.9330503422814047</v>
       </c>
       <c r="C25">
-        <v>0.06914566144595824</v>
+        <v>0.1884542563783356</v>
       </c>
       <c r="D25">
-        <v>0.1905609893543811</v>
+        <v>0.1687879065532343</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.023369722581435</v>
+        <v>1.325086753649643</v>
       </c>
       <c r="G25">
-        <v>1.285117471760842</v>
+        <v>0.9361847696473831</v>
       </c>
       <c r="H25">
-        <v>1.213936594616726</v>
+        <v>0.6389172398612573</v>
       </c>
       <c r="I25">
-        <v>1.024100425292517</v>
+        <v>0.6042428388946277</v>
       </c>
       <c r="J25">
-        <v>0.3040209922058636</v>
+        <v>0.2218789717024308</v>
       </c>
       <c r="K25">
-        <v>0.4082177576576669</v>
+        <v>1.08008882399173</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3060929628873623</v>
+        <v>0.4602962234546908</v>
       </c>
       <c r="N25">
         <v>0</v>
